--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -859,7 +859,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3080,7 +3080,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>327</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>337</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>366</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>371</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>384</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>389</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>394</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>399</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>404</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>409</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>414</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>433</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>589</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>594</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>623</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>635</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>638</v>
       </c>
@@ -18817,12 +18817,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO141">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
